--- a/All Results.xlsx
+++ b/All Results.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27109"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -10,7 +10,7 @@
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B43AF20-E424-4BD7-8B8C-EAF60747A06C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
     <externalReference r:id="rId7"/>
     <externalReference r:id="rId8"/>
   </externalReferences>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -50,7 +50,7 @@
     <t>GA-Mix</t>
   </si>
   <si>
-    <t xml:space="preserve">PSO#2 </t>
+    <t>GA-biased</t>
   </si>
   <si>
     <t>GA-Tournament</t>
@@ -59,17 +59,17 @@
     <t>ABC</t>
   </si>
   <si>
-    <t>GA-biased</t>
+    <t>PSO#1</t>
   </si>
   <si>
-    <t>PSO#1</t>
+    <t xml:space="preserve">PSO#2 </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -40046,7 +40046,7 @@
       <selection activeCell="D66" sqref="D66"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -40061,17 +40061,17 @@
       <selection activeCell="O26" sqref="O26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="3" max="3" width="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7">
       <c r="B1" t="s">
         <v>0</v>
       </c>
       <c r="C1" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D1" t="s">
         <v>2</v>
@@ -40080,13 +40080,13 @@
         <v>3</v>
       </c>
       <c r="F1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
-        <v>1</v>
-      </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7">
       <c r="A2">
         <v>1</v>
       </c>
@@ -40115,7 +40115,7 @@
         <v>96.635999999999996</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7">
       <c r="A3">
         <v>2</v>
       </c>
@@ -40144,7 +40144,7 @@
         <v>566.69599999999787</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7">
       <c r="A4">
         <v>3</v>
       </c>
@@ -40173,7 +40173,7 @@
         <v>823.19999999999982</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7">
       <c r="A5">
         <v>4</v>
       </c>
@@ -40202,7 +40202,7 @@
         <v>916.87999999999977</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7">
       <c r="A6">
         <v>5</v>
       </c>
@@ -40231,7 +40231,7 @@
         <v>1050.2599999999977</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7">
       <c r="A7">
         <v>6</v>
       </c>
@@ -40260,7 +40260,7 @@
         <v>1097.3559999999979</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7">
       <c r="A8">
         <v>7</v>
       </c>
@@ -40289,7 +40289,7 @@
         <v>1097.3559999999979</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7">
       <c r="A9">
         <v>8</v>
       </c>
@@ -40318,7 +40318,7 @@
         <v>1135.995999999998</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7">
       <c r="A10">
         <v>9</v>
       </c>
@@ -40347,7 +40347,7 @@
         <v>1421.255999999998</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7">
       <c r="A11">
         <v>10</v>
       </c>
@@ -40376,7 +40376,7 @@
         <v>1720.239999999998</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7">
       <c r="A12">
         <v>11</v>
       </c>
@@ -40405,7 +40405,7 @@
         <v>1724.6399999999981</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7">
       <c r="A13">
         <v>12</v>
       </c>
@@ -40434,7 +40434,7 @@
         <v>1791.0399999999979</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7">
       <c r="A14">
         <v>13</v>
       </c>
@@ -40463,7 +40463,7 @@
         <v>1791.0399999999979</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7">
       <c r="A15">
         <v>14</v>
       </c>
@@ -40492,7 +40492,7 @@
         <v>1791.0399999999979</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7">
       <c r="A16">
         <v>15</v>
       </c>
@@ -40521,7 +40521,7 @@
         <v>1823.3599999999981</v>
       </c>
     </row>
-    <row r="17" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:22">
       <c r="A17">
         <v>16</v>
       </c>
@@ -40550,7 +40550,7 @@
         <v>1823.3599999999981</v>
       </c>
     </row>
-    <row r="18" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:22">
       <c r="A18">
         <v>17</v>
       </c>
@@ -40579,7 +40579,7 @@
         <v>1835.159999999998</v>
       </c>
     </row>
-    <row r="19" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:22">
       <c r="A19">
         <v>18</v>
       </c>
@@ -40609,7 +40609,7 @@
       </c>
       <c r="V19" s="1"/>
     </row>
-    <row r="20" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:22">
       <c r="A20">
         <v>19</v>
       </c>
@@ -40638,7 +40638,7 @@
         <v>1856.959999999998</v>
       </c>
     </row>
-    <row r="21" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:22">
       <c r="A21">
         <v>20</v>
       </c>
@@ -40667,7 +40667,7 @@
         <v>1856.959999999998</v>
       </c>
     </row>
-    <row r="22" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:22">
       <c r="A22">
         <v>21</v>
       </c>
@@ -40696,7 +40696,7 @@
         <v>2101.5799999999981</v>
       </c>
     </row>
-    <row r="23" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:22">
       <c r="A23">
         <v>22</v>
       </c>
@@ -40725,7 +40725,7 @@
         <v>2101.5799999999981</v>
       </c>
     </row>
-    <row r="24" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:22">
       <c r="A24">
         <v>23</v>
       </c>
@@ -40754,7 +40754,7 @@
         <v>2154.9799999999982</v>
       </c>
     </row>
-    <row r="25" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:22">
       <c r="A25">
         <v>24</v>
       </c>
@@ -40783,7 +40783,7 @@
         <v>2154.9799999999982</v>
       </c>
     </row>
-    <row r="26" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:22">
       <c r="A26">
         <v>25</v>
       </c>
@@ -40812,7 +40812,7 @@
         <v>2154.9799999999982</v>
       </c>
     </row>
-    <row r="27" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:22">
       <c r="A27">
         <v>26</v>
       </c>
@@ -40841,7 +40841,7 @@
         <v>2154.9799999999982</v>
       </c>
     </row>
-    <row r="28" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:22">
       <c r="A28">
         <v>27</v>
       </c>
@@ -40870,7 +40870,7 @@
         <v>2154.9799999999982</v>
       </c>
     </row>
-    <row r="29" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:22">
       <c r="A29">
         <v>28</v>
       </c>
@@ -40899,7 +40899,7 @@
         <v>2154.9799999999982</v>
       </c>
     </row>
-    <row r="30" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:22">
       <c r="A30">
         <v>29</v>
       </c>
@@ -40928,7 +40928,7 @@
         <v>2154.9799999999982</v>
       </c>
     </row>
-    <row r="31" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:22">
       <c r="A31">
         <v>30</v>
       </c>
@@ -40957,7 +40957,7 @@
         <v>2154.9799999999982</v>
       </c>
     </row>
-    <row r="32" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:22">
       <c r="A32">
         <v>31</v>
       </c>
@@ -40986,7 +40986,7 @@
         <v>2154.9799999999982</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7">
       <c r="A33">
         <v>32</v>
       </c>
@@ -41015,7 +41015,7 @@
         <v>2154.9799999999982</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7">
       <c r="A34">
         <v>33</v>
       </c>
@@ -41044,7 +41044,7 @@
         <v>2154.9799999999982</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7">
       <c r="A35">
         <v>34</v>
       </c>
@@ -41073,7 +41073,7 @@
         <v>2154.9799999999982</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7">
       <c r="A36">
         <v>35</v>
       </c>
@@ -41102,7 +41102,7 @@
         <v>2154.9799999999982</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7">
       <c r="A37">
         <v>36</v>
       </c>
@@ -41131,7 +41131,7 @@
         <v>2154.9799999999982</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7">
       <c r="A38">
         <v>37</v>
       </c>
@@ -41160,7 +41160,7 @@
         <v>2154.9799999999982</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:7">
       <c r="A39">
         <v>38</v>
       </c>
@@ -41189,7 +41189,7 @@
         <v>2154.9799999999982</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:7">
       <c r="A40">
         <v>39</v>
       </c>
@@ -41218,7 +41218,7 @@
         <v>2154.9799999999982</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:7">
       <c r="A41">
         <v>40</v>
       </c>
@@ -41247,7 +41247,7 @@
         <v>2154.9799999999982</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:7">
       <c r="A42">
         <v>41</v>
       </c>
@@ -41276,7 +41276,7 @@
         <v>2154.9799999999982</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:7">
       <c r="A43">
         <v>42</v>
       </c>
@@ -41305,7 +41305,7 @@
         <v>2154.9799999999982</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:7">
       <c r="A44">
         <v>43</v>
       </c>
@@ -41334,7 +41334,7 @@
         <v>2154.9799999999982</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:7">
       <c r="A45">
         <v>44</v>
       </c>
@@ -41363,7 +41363,7 @@
         <v>2154.9799999999982</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:7">
       <c r="A46">
         <v>45</v>
       </c>
@@ -41392,7 +41392,7 @@
         <v>2154.9799999999982</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:7">
       <c r="A47">
         <v>46</v>
       </c>
@@ -41421,7 +41421,7 @@
         <v>2154.9799999999982</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:7">
       <c r="A48">
         <v>47</v>
       </c>
@@ -41450,7 +41450,7 @@
         <v>2154.9799999999982</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:7">
       <c r="A49">
         <v>48</v>
       </c>
@@ -41479,7 +41479,7 @@
         <v>2154.9799999999982</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:7">
       <c r="A50">
         <v>49</v>
       </c>
@@ -41508,7 +41508,7 @@
         <v>2212.3999999999983</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:7">
       <c r="A51">
         <v>50</v>
       </c>
@@ -41537,7 +41537,7 @@
         <v>2212.3999999999983</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:7">
       <c r="A52">
         <v>51</v>
       </c>
@@ -41566,7 +41566,7 @@
         <v>2212.3999999999983</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:7">
       <c r="A53">
         <v>52</v>
       </c>
@@ -41595,7 +41595,7 @@
         <v>2221.0799999999981</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:7">
       <c r="A54">
         <v>53</v>
       </c>
@@ -41624,7 +41624,7 @@
         <v>2221.0799999999981</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:7">
       <c r="A55">
         <v>54</v>
       </c>
@@ -41653,7 +41653,7 @@
         <v>2221.0799999999981</v>
       </c>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:7">
       <c r="A56">
         <v>55</v>
       </c>
@@ -41682,7 +41682,7 @@
         <v>2228.0799999999981</v>
       </c>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:7">
       <c r="A57">
         <v>56</v>
       </c>
@@ -41711,7 +41711,7 @@
         <v>2228.0799999999981</v>
       </c>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:7">
       <c r="A58">
         <v>57</v>
       </c>
@@ -41740,7 +41740,7 @@
         <v>2228.0799999999981</v>
       </c>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:7">
       <c r="A59">
         <v>58</v>
       </c>
@@ -41769,7 +41769,7 @@
         <v>2228.0799999999981</v>
       </c>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:7">
       <c r="A60">
         <v>59</v>
       </c>
@@ -41798,7 +41798,7 @@
         <v>2228.0799999999981</v>
       </c>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:7">
       <c r="A61">
         <v>60</v>
       </c>
@@ -41827,7 +41827,7 @@
         <v>2228.0799999999981</v>
       </c>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:7">
       <c r="A62">
         <v>61</v>
       </c>
@@ -41856,7 +41856,7 @@
         <v>2228.0799999999981</v>
       </c>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:7">
       <c r="A63">
         <v>62</v>
       </c>
@@ -41885,7 +41885,7 @@
         <v>2239.2799999999979</v>
       </c>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:7">
       <c r="A64">
         <v>63</v>
       </c>
@@ -41914,7 +41914,7 @@
         <v>2265.2799999999979</v>
       </c>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:7">
       <c r="A65">
         <v>64</v>
       </c>
@@ -41943,7 +41943,7 @@
         <v>2265.2799999999979</v>
       </c>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:7">
       <c r="A66">
         <v>65</v>
       </c>
@@ -41972,7 +41972,7 @@
         <v>2388.0799999999981</v>
       </c>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:7">
       <c r="A67">
         <v>66</v>
       </c>
@@ -42001,7 +42001,7 @@
         <v>2469.2799999999979</v>
       </c>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:7">
       <c r="A68">
         <v>67</v>
       </c>
@@ -42030,7 +42030,7 @@
         <v>2469.2799999999979</v>
       </c>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:7">
       <c r="A69">
         <v>68</v>
       </c>
@@ -42059,7 +42059,7 @@
         <v>2469.2799999999979</v>
       </c>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:7">
       <c r="A70">
         <v>69</v>
       </c>
@@ -42088,7 +42088,7 @@
         <v>2469.2799999999979</v>
       </c>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:7">
       <c r="A71">
         <v>70</v>
       </c>
@@ -42117,7 +42117,7 @@
         <v>2469.2799999999979</v>
       </c>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:7">
       <c r="A72">
         <v>71</v>
       </c>
@@ -42146,7 +42146,7 @@
         <v>2469.2799999999979</v>
       </c>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:7">
       <c r="A73">
         <v>72</v>
       </c>
@@ -42175,7 +42175,7 @@
         <v>2469.2799999999979</v>
       </c>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:7">
       <c r="A74">
         <v>73</v>
       </c>
@@ -42204,7 +42204,7 @@
         <v>2469.2799999999979</v>
       </c>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:7">
       <c r="A75">
         <v>74</v>
       </c>
@@ -42233,7 +42233,7 @@
         <v>2469.2799999999979</v>
       </c>
     </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:7">
       <c r="A76">
         <v>75</v>
       </c>
@@ -42262,7 +42262,7 @@
         <v>2469.2799999999979</v>
       </c>
     </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:7">
       <c r="A77">
         <v>76</v>
       </c>
@@ -42291,7 +42291,7 @@
         <v>2469.2799999999979</v>
       </c>
     </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:7">
       <c r="A78">
         <v>77</v>
       </c>
@@ -42320,7 +42320,7 @@
         <v>2469.2799999999979</v>
       </c>
     </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:7">
       <c r="A79">
         <v>78</v>
       </c>
@@ -42349,7 +42349,7 @@
         <v>2469.2799999999979</v>
       </c>
     </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:7">
       <c r="A80">
         <v>79</v>
       </c>
@@ -42378,7 +42378,7 @@
         <v>2469.2799999999979</v>
       </c>
     </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:7">
       <c r="A81">
         <v>80</v>
       </c>
@@ -42407,7 +42407,7 @@
         <v>2469.2799999999979</v>
       </c>
     </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:7">
       <c r="A82">
         <v>81</v>
       </c>
@@ -42436,7 +42436,7 @@
         <v>2469.2799999999979</v>
       </c>
     </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:7">
       <c r="A83">
         <v>82</v>
       </c>
@@ -42465,7 +42465,7 @@
         <v>2520.2799999999979</v>
       </c>
     </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:7">
       <c r="A84">
         <v>83</v>
       </c>
@@ -42494,7 +42494,7 @@
         <v>2520.2799999999979</v>
       </c>
     </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:7">
       <c r="A85">
         <v>84</v>
       </c>
@@ -42523,7 +42523,7 @@
         <v>2525.8799999999983</v>
       </c>
     </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:7">
       <c r="A86">
         <v>85</v>
       </c>
@@ -42552,7 +42552,7 @@
         <v>2525.8799999999983</v>
       </c>
     </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:7">
       <c r="A87">
         <v>86</v>
       </c>
@@ -42581,7 +42581,7 @@
         <v>2525.8799999999983</v>
       </c>
     </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:7">
       <c r="A88">
         <v>87</v>
       </c>
@@ -42610,7 +42610,7 @@
         <v>2525.8799999999983</v>
       </c>
     </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:7">
       <c r="A89">
         <v>88</v>
       </c>
@@ -42639,7 +42639,7 @@
         <v>2525.8799999999983</v>
       </c>
     </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:7">
       <c r="A90">
         <v>89</v>
       </c>
@@ -42668,7 +42668,7 @@
         <v>2525.8799999999983</v>
       </c>
     </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:7">
       <c r="A91">
         <v>90</v>
       </c>
@@ -42697,7 +42697,7 @@
         <v>2525.8799999999983</v>
       </c>
     </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:7">
       <c r="A92">
         <v>91</v>
       </c>
@@ -42726,7 +42726,7 @@
         <v>2525.8799999999983</v>
       </c>
     </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:7">
       <c r="A93">
         <v>92</v>
       </c>
@@ -42755,7 +42755,7 @@
         <v>2525.8799999999983</v>
       </c>
     </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:7">
       <c r="A94">
         <v>93</v>
       </c>
@@ -42784,7 +42784,7 @@
         <v>2525.8799999999983</v>
       </c>
     </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:7">
       <c r="A95">
         <v>94</v>
       </c>
@@ -42813,7 +42813,7 @@
         <v>2525.8799999999983</v>
       </c>
     </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:7">
       <c r="A96">
         <v>95</v>
       </c>
@@ -42842,7 +42842,7 @@
         <v>2525.8799999999983</v>
       </c>
     </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:7">
       <c r="A97">
         <v>96</v>
       </c>
@@ -42871,7 +42871,7 @@
         <v>2551.4799999999982</v>
       </c>
     </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:7">
       <c r="A98">
         <v>97</v>
       </c>
@@ -42900,7 +42900,7 @@
         <v>2551.4799999999982</v>
       </c>
     </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:7">
       <c r="A99">
         <v>98</v>
       </c>
@@ -42929,7 +42929,7 @@
         <v>2551.4799999999982</v>
       </c>
     </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:7">
       <c r="A100">
         <v>99</v>
       </c>
@@ -42958,7 +42958,7 @@
         <v>2551.4799999999982</v>
       </c>
     </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:7">
       <c r="A101">
         <v>100</v>
       </c>
@@ -42987,7 +42987,7 @@
         <v>2557.0799999999981</v>
       </c>
     </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:7">
       <c r="A102">
         <v>101</v>
       </c>
@@ -43016,7 +43016,7 @@
         <v>2557.0799999999981</v>
       </c>
     </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:7">
       <c r="A103">
         <v>102</v>
       </c>
@@ -43045,7 +43045,7 @@
         <v>2557.0799999999981</v>
       </c>
     </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:7">
       <c r="A104">
         <v>103</v>
       </c>
@@ -43074,7 +43074,7 @@
         <v>2557.0799999999981</v>
       </c>
     </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:7">
       <c r="A105">
         <v>104</v>
       </c>
@@ -43103,7 +43103,7 @@
         <v>2557.0799999999981</v>
       </c>
     </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:7">
       <c r="A106">
         <v>105</v>
       </c>
@@ -43132,7 +43132,7 @@
         <v>2557.0799999999981</v>
       </c>
     </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:7">
       <c r="A107">
         <v>106</v>
       </c>
@@ -43161,7 +43161,7 @@
         <v>2557.0799999999981</v>
       </c>
     </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:7">
       <c r="A108">
         <v>107</v>
       </c>
@@ -43190,7 +43190,7 @@
         <v>2557.0799999999981</v>
       </c>
     </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:7">
       <c r="A109">
         <v>108</v>
       </c>
@@ -43219,7 +43219,7 @@
         <v>2557.0799999999981</v>
       </c>
     </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:7">
       <c r="A110">
         <v>109</v>
       </c>
@@ -43248,7 +43248,7 @@
         <v>2557.0799999999981</v>
       </c>
     </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:7">
       <c r="A111">
         <v>110</v>
       </c>
@@ -43277,7 +43277,7 @@
         <v>2557.0799999999981</v>
       </c>
     </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:7">
       <c r="A112">
         <v>111</v>
       </c>
@@ -43306,7 +43306,7 @@
         <v>2557.0799999999981</v>
       </c>
     </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:7">
       <c r="A113">
         <v>112</v>
       </c>
@@ -43335,7 +43335,7 @@
         <v>2557.0799999999981</v>
       </c>
     </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:7">
       <c r="A114">
         <v>113</v>
       </c>
@@ -43364,7 +43364,7 @@
         <v>2557.0799999999981</v>
       </c>
     </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:7">
       <c r="A115">
         <v>114</v>
       </c>
@@ -43393,7 +43393,7 @@
         <v>2557.0799999999981</v>
       </c>
     </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:7">
       <c r="A116">
         <v>115</v>
       </c>
@@ -43422,7 +43422,7 @@
         <v>2557.0799999999981</v>
       </c>
     </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:7">
       <c r="A117">
         <v>116</v>
       </c>
@@ -43451,7 +43451,7 @@
         <v>2557.0799999999981</v>
       </c>
     </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:7">
       <c r="A118">
         <v>117</v>
       </c>
@@ -43480,7 +43480,7 @@
         <v>2557.0799999999981</v>
       </c>
     </row>
-    <row r="119" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:7">
       <c r="A119">
         <v>118</v>
       </c>
@@ -43509,7 +43509,7 @@
         <v>2557.0799999999981</v>
       </c>
     </row>
-    <row r="120" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:7">
       <c r="A120">
         <v>119</v>
       </c>
@@ -43538,7 +43538,7 @@
         <v>2557.0799999999981</v>
       </c>
     </row>
-    <row r="121" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:7">
       <c r="A121">
         <v>120</v>
       </c>
@@ -43567,7 +43567,7 @@
         <v>2557.0799999999981</v>
       </c>
     </row>
-    <row r="122" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:7">
       <c r="A122">
         <v>121</v>
       </c>
@@ -43596,7 +43596,7 @@
         <v>2557.0799999999981</v>
       </c>
     </row>
-    <row r="123" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:7">
       <c r="A123">
         <v>122</v>
       </c>
@@ -43625,7 +43625,7 @@
         <v>2562.679999999998</v>
       </c>
     </row>
-    <row r="124" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:7">
       <c r="A124">
         <v>123</v>
       </c>
@@ -43654,7 +43654,7 @@
         <v>2562.679999999998</v>
       </c>
     </row>
-    <row r="125" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:7">
       <c r="A125">
         <v>124</v>
       </c>
@@ -43683,7 +43683,7 @@
         <v>2562.679999999998</v>
       </c>
     </row>
-    <row r="126" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:7">
       <c r="A126">
         <v>125</v>
       </c>
@@ -43712,7 +43712,7 @@
         <v>2562.679999999998</v>
       </c>
     </row>
-    <row r="127" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:7">
       <c r="A127">
         <v>126</v>
       </c>
@@ -43741,7 +43741,7 @@
         <v>2562.679999999998</v>
       </c>
     </row>
-    <row r="128" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:7">
       <c r="A128">
         <v>127</v>
       </c>
@@ -43770,7 +43770,7 @@
         <v>2563.0799999999981</v>
       </c>
     </row>
-    <row r="129" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:7">
       <c r="A129">
         <v>128</v>
       </c>
@@ -43799,7 +43799,7 @@
         <v>2563.0799999999981</v>
       </c>
     </row>
-    <row r="130" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:7">
       <c r="A130">
         <v>129</v>
       </c>
@@ -43828,7 +43828,7 @@
         <v>2563.0799999999981</v>
       </c>
     </row>
-    <row r="131" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:7">
       <c r="A131">
         <v>130</v>
       </c>
@@ -43857,7 +43857,7 @@
         <v>2563.0799999999981</v>
       </c>
     </row>
-    <row r="132" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:7">
       <c r="A132">
         <v>131</v>
       </c>
@@ -43886,7 +43886,7 @@
         <v>2563.0799999999981</v>
       </c>
     </row>
-    <row r="133" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:7">
       <c r="A133">
         <v>132</v>
       </c>
@@ -43915,7 +43915,7 @@
         <v>2591.0799999999981</v>
       </c>
     </row>
-    <row r="134" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:7">
       <c r="A134">
         <v>133</v>
       </c>
@@ -43944,7 +43944,7 @@
         <v>2591.0799999999981</v>
       </c>
     </row>
-    <row r="135" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:7">
       <c r="A135">
         <v>134</v>
       </c>
@@ -43973,7 +43973,7 @@
         <v>2591.0799999999981</v>
       </c>
     </row>
-    <row r="136" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:7">
       <c r="A136">
         <v>135</v>
       </c>
@@ -44002,7 +44002,7 @@
         <v>2591.0799999999981</v>
       </c>
     </row>
-    <row r="137" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:7">
       <c r="A137">
         <v>136</v>
       </c>
@@ -44031,7 +44031,7 @@
         <v>2614.2799999999979</v>
       </c>
     </row>
-    <row r="138" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:7">
       <c r="A138">
         <v>137</v>
       </c>
@@ -44060,7 +44060,7 @@
         <v>2614.2799999999979</v>
       </c>
     </row>
-    <row r="139" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:7">
       <c r="A139">
         <v>138</v>
       </c>
@@ -44089,7 +44089,7 @@
         <v>2614.2799999999979</v>
       </c>
     </row>
-    <row r="140" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:7">
       <c r="A140">
         <v>139</v>
       </c>
@@ -44118,7 +44118,7 @@
         <v>2614.2799999999979</v>
       </c>
     </row>
-    <row r="141" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:7">
       <c r="A141">
         <v>140</v>
       </c>
@@ -44147,7 +44147,7 @@
         <v>2614.2799999999979</v>
       </c>
     </row>
-    <row r="142" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:7">
       <c r="A142">
         <v>141</v>
       </c>
@@ -44176,7 +44176,7 @@
         <v>2614.2799999999979</v>
       </c>
     </row>
-    <row r="143" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:7">
       <c r="A143">
         <v>142</v>
       </c>
@@ -44205,7 +44205,7 @@
         <v>2614.2799999999979</v>
       </c>
     </row>
-    <row r="144" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:7">
       <c r="A144">
         <v>143</v>
       </c>
@@ -44234,7 +44234,7 @@
         <v>2614.2799999999979</v>
       </c>
     </row>
-    <row r="145" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:7">
       <c r="A145">
         <v>144</v>
       </c>
@@ -44263,7 +44263,7 @@
         <v>2614.2799999999979</v>
       </c>
     </row>
-    <row r="146" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:7">
       <c r="A146">
         <v>145</v>
       </c>
@@ -44292,7 +44292,7 @@
         <v>2614.2799999999979</v>
       </c>
     </row>
-    <row r="147" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:7">
       <c r="A147">
         <v>146</v>
       </c>
@@ -44321,7 +44321,7 @@
         <v>2614.2799999999979</v>
       </c>
     </row>
-    <row r="148" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:7">
       <c r="A148">
         <v>147</v>
       </c>
@@ -44350,7 +44350,7 @@
         <v>2614.2799999999979</v>
       </c>
     </row>
-    <row r="149" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:7">
       <c r="A149">
         <v>148</v>
       </c>
@@ -44379,7 +44379,7 @@
         <v>2614.2799999999979</v>
       </c>
     </row>
-    <row r="150" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:7">
       <c r="A150">
         <v>149</v>
       </c>
@@ -44408,7 +44408,7 @@
         <v>2614.2799999999979</v>
       </c>
     </row>
-    <row r="151" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:7">
       <c r="A151">
         <v>150</v>
       </c>
@@ -44437,7 +44437,7 @@
         <v>2614.2799999999979</v>
       </c>
     </row>
-    <row r="152" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:7">
       <c r="A152">
         <v>151</v>
       </c>
@@ -44466,7 +44466,7 @@
         <v>2614.2799999999979</v>
       </c>
     </row>
-    <row r="153" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:7">
       <c r="A153">
         <v>152</v>
       </c>
@@ -44495,7 +44495,7 @@
         <v>2614.2799999999979</v>
       </c>
     </row>
-    <row r="154" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:7">
       <c r="A154">
         <v>153</v>
       </c>
@@ -44524,7 +44524,7 @@
         <v>2614.2799999999979</v>
       </c>
     </row>
-    <row r="155" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:7">
       <c r="A155">
         <v>154</v>
       </c>
@@ -44553,7 +44553,7 @@
         <v>2614.2799999999979</v>
       </c>
     </row>
-    <row r="156" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:7">
       <c r="A156">
         <v>155</v>
       </c>
@@ -44582,7 +44582,7 @@
         <v>2614.2799999999979</v>
       </c>
     </row>
-    <row r="157" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:7">
       <c r="A157">
         <v>156</v>
       </c>
@@ -44611,7 +44611,7 @@
         <v>2614.2799999999979</v>
       </c>
     </row>
-    <row r="158" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:7">
       <c r="A158">
         <v>157</v>
       </c>
@@ -44640,7 +44640,7 @@
         <v>2614.2799999999979</v>
       </c>
     </row>
-    <row r="159" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:7">
       <c r="A159">
         <v>158</v>
       </c>
@@ -44669,7 +44669,7 @@
         <v>2614.2799999999979</v>
       </c>
     </row>
-    <row r="160" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:7">
       <c r="A160">
         <v>159</v>
       </c>
@@ -44698,7 +44698,7 @@
         <v>2614.2799999999979</v>
       </c>
     </row>
-    <row r="161" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:7">
       <c r="A161">
         <v>160</v>
       </c>
@@ -44727,7 +44727,7 @@
         <v>2614.2799999999979</v>
       </c>
     </row>
-    <row r="162" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:7">
       <c r="A162">
         <v>161</v>
       </c>
@@ -44756,7 +44756,7 @@
         <v>2614.2799999999979</v>
       </c>
     </row>
-    <row r="163" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:7">
       <c r="A163">
         <v>162</v>
       </c>
@@ -44785,7 +44785,7 @@
         <v>2614.2799999999979</v>
       </c>
     </row>
-    <row r="164" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:7">
       <c r="A164">
         <v>163</v>
       </c>
@@ -44814,7 +44814,7 @@
         <v>2614.2799999999979</v>
       </c>
     </row>
-    <row r="165" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:7">
       <c r="A165">
         <v>164</v>
       </c>
@@ -44843,7 +44843,7 @@
         <v>2614.2799999999979</v>
       </c>
     </row>
-    <row r="166" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:7">
       <c r="A166">
         <v>165</v>
       </c>
@@ -44872,7 +44872,7 @@
         <v>2614.2799999999979</v>
       </c>
     </row>
-    <row r="167" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:7">
       <c r="A167">
         <v>166</v>
       </c>
@@ -44901,7 +44901,7 @@
         <v>2614.2799999999979</v>
       </c>
     </row>
-    <row r="168" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:7">
       <c r="A168">
         <v>167</v>
       </c>
@@ -44930,7 +44930,7 @@
         <v>2614.2799999999979</v>
       </c>
     </row>
-    <row r="169" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:7">
       <c r="A169">
         <v>168</v>
       </c>
@@ -44959,7 +44959,7 @@
         <v>2614.2799999999979</v>
       </c>
     </row>
-    <row r="170" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:7">
       <c r="A170">
         <v>169</v>
       </c>
@@ -44988,7 +44988,7 @@
         <v>2614.2799999999979</v>
       </c>
     </row>
-    <row r="171" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:7">
       <c r="A171">
         <v>170</v>
       </c>
@@ -45017,7 +45017,7 @@
         <v>2614.2799999999979</v>
       </c>
     </row>
-    <row r="172" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:7">
       <c r="A172">
         <v>171</v>
       </c>
@@ -45046,7 +45046,7 @@
         <v>2614.2799999999979</v>
       </c>
     </row>
-    <row r="173" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:7">
       <c r="A173">
         <v>172</v>
       </c>
@@ -45075,7 +45075,7 @@
         <v>2614.2799999999979</v>
       </c>
     </row>
-    <row r="174" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:7">
       <c r="A174">
         <v>173</v>
       </c>
@@ -45104,7 +45104,7 @@
         <v>2614.2799999999979</v>
       </c>
     </row>
-    <row r="175" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:7">
       <c r="A175">
         <v>174</v>
       </c>
@@ -45133,7 +45133,7 @@
         <v>2614.2799999999979</v>
       </c>
     </row>
-    <row r="176" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:7">
       <c r="A176">
         <v>175</v>
       </c>
@@ -45162,7 +45162,7 @@
         <v>2614.2799999999979</v>
       </c>
     </row>
-    <row r="177" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:7">
       <c r="A177">
         <v>176</v>
       </c>
@@ -45191,7 +45191,7 @@
         <v>2614.2799999999979</v>
       </c>
     </row>
-    <row r="178" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:7">
       <c r="A178">
         <v>177</v>
       </c>
@@ -45220,7 +45220,7 @@
         <v>2614.2799999999979</v>
       </c>
     </row>
-    <row r="179" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:7">
       <c r="A179">
         <v>178</v>
       </c>
@@ -45249,7 +45249,7 @@
         <v>2614.2799999999979</v>
       </c>
     </row>
-    <row r="180" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:7">
       <c r="A180">
         <v>179</v>
       </c>
@@ -45278,7 +45278,7 @@
         <v>2614.2799999999979</v>
       </c>
     </row>
-    <row r="181" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:7">
       <c r="A181">
         <v>180</v>
       </c>
@@ -45307,7 +45307,7 @@
         <v>2614.2799999999979</v>
       </c>
     </row>
-    <row r="182" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:7">
       <c r="A182">
         <v>181</v>
       </c>
@@ -45336,7 +45336,7 @@
         <v>2614.2799999999979</v>
       </c>
     </row>
-    <row r="183" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:7">
       <c r="A183">
         <v>182</v>
       </c>
@@ -45365,7 +45365,7 @@
         <v>2614.2799999999979</v>
       </c>
     </row>
-    <row r="184" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:7">
       <c r="A184">
         <v>183</v>
       </c>
@@ -45394,7 +45394,7 @@
         <v>2614.2799999999979</v>
       </c>
     </row>
-    <row r="185" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:7">
       <c r="A185">
         <v>184</v>
       </c>
@@ -45423,7 +45423,7 @@
         <v>2614.2799999999979</v>
       </c>
     </row>
-    <row r="186" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:7">
       <c r="A186">
         <v>185</v>
       </c>
@@ -45452,7 +45452,7 @@
         <v>2614.2799999999979</v>
       </c>
     </row>
-    <row r="187" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:7">
       <c r="A187">
         <v>186</v>
       </c>
@@ -45481,7 +45481,7 @@
         <v>2614.2799999999979</v>
       </c>
     </row>
-    <row r="188" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:7">
       <c r="A188">
         <v>187</v>
       </c>
@@ -45510,7 +45510,7 @@
         <v>2614.2799999999979</v>
       </c>
     </row>
-    <row r="189" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:7">
       <c r="A189">
         <v>188</v>
       </c>
@@ -45539,7 +45539,7 @@
         <v>2614.2799999999979</v>
       </c>
     </row>
-    <row r="190" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:7">
       <c r="A190">
         <v>189</v>
       </c>
@@ -45568,7 +45568,7 @@
         <v>2614.2799999999979</v>
       </c>
     </row>
-    <row r="191" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:7">
       <c r="A191">
         <v>190</v>
       </c>
@@ -45597,7 +45597,7 @@
         <v>2614.2799999999979</v>
       </c>
     </row>
-    <row r="192" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:7">
       <c r="A192">
         <v>191</v>
       </c>
@@ -45626,7 +45626,7 @@
         <v>2614.2799999999979</v>
       </c>
     </row>
-    <row r="193" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:7">
       <c r="A193">
         <v>192</v>
       </c>
@@ -45655,7 +45655,7 @@
         <v>2614.2799999999979</v>
       </c>
     </row>
-    <row r="194" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:7">
       <c r="A194">
         <v>193</v>
       </c>
@@ -45684,7 +45684,7 @@
         <v>2614.2799999999979</v>
       </c>
     </row>
-    <row r="195" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:7">
       <c r="A195">
         <v>194</v>
       </c>
@@ -45713,7 +45713,7 @@
         <v>2697.4799999999982</v>
       </c>
     </row>
-    <row r="196" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:7">
       <c r="A196">
         <v>195</v>
       </c>
@@ -45742,7 +45742,7 @@
         <v>2697.4799999999982</v>
       </c>
     </row>
-    <row r="197" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:7">
       <c r="A197">
         <v>196</v>
       </c>
@@ -45771,7 +45771,7 @@
         <v>2697.4799999999982</v>
       </c>
     </row>
-    <row r="198" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:7">
       <c r="A198">
         <v>197</v>
       </c>
@@ -45800,7 +45800,7 @@
         <v>2697.4799999999982</v>
       </c>
     </row>
-    <row r="199" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:7">
       <c r="A199">
         <v>198</v>
       </c>
@@ -45829,7 +45829,7 @@
         <v>2697.4799999999982</v>
       </c>
     </row>
-    <row r="200" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:7">
       <c r="A200">
         <v>199</v>
       </c>
@@ -45858,7 +45858,7 @@
         <v>2697.4799999999982</v>
       </c>
     </row>
-    <row r="201" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:7">
       <c r="A201">
         <v>200</v>
       </c>
@@ -45887,7 +45887,7 @@
         <v>2697.4799999999982</v>
       </c>
     </row>
-    <row r="202" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:7">
       <c r="A202">
         <v>201</v>
       </c>
@@ -45914,7 +45914,7 @@
         <v>2697.4799999999982</v>
       </c>
     </row>
-    <row r="206" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:7">
       <c r="B206">
         <f>MAX(B2:B201)</f>
         <v>6705.9</v>
